--- a/Mifos Automation Excels/Client/4011-CREATECLIENT-ENTITY-SAVINGSACC.xlsx
+++ b/Mifos Automation Excels/Client/4011-CREATECLIENT-ENTITY-SAVINGSACC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>office</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>submit</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>please select valid savings product</t>
   </si>
   <si>
     <t>submitclient</t>
@@ -84,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -98,11 +92,6 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -138,14 +127,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -153,7 +141,6 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -472,11 +459,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
@@ -484,11 +471,11 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
@@ -496,11 +483,11 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
@@ -508,10 +495,10 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3"/>
@@ -520,10 +507,10 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>4011563210</v>
       </c>
       <c r="C5" s="3"/>
@@ -532,11 +519,11 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
@@ -544,11 +531,11 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
@@ -556,10 +543,10 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>42005</v>
       </c>
       <c r="C8" s="3"/>
@@ -568,34 +555,26 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -605,10 +584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -616,16 +595,7 @@
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
